--- a/crypto_tracking_data.xlsx
+++ b/crypto_tracking_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,13 +537,13 @@
         <v>7.01</v>
       </c>
       <c r="H2" t="n">
-        <v>7.767</v>
+        <v>7.683</v>
       </c>
       <c r="I2" t="n">
-        <v>7.759233</v>
+        <v>7.66233</v>
       </c>
       <c r="J2" t="n">
-        <v>10.68805991440799</v>
+        <v>9.305706134094152</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -558,6 +558,573 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>28/12/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.1653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.495899999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.4395</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.308184499999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.50457211471853</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0273</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.996</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.1092</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.4393</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.744246</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.16285206925469</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1/1/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.4393</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2.4385</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1382</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0021382</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.1360618</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.00213820000000009</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1/1/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.4393</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-12.1925</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1382</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.010691</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.680309</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.01069099999999956</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1/1/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FTM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6728</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.979</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.1288</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8411</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.6391432</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24.84530321046373</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1/1/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DOT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6.669</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.01898</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.802379999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.81659558</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.9097165991903</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2/1/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TROY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00596</v>
+      </c>
+      <c r="D9" t="n">
+        <v>876</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0876</v>
+      </c>
+      <c r="F9" t="n">
+        <v>875.9124</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.22096</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.004362</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.8128466772</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-26.9703909395973</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3/1/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TROY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.004202</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1427</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1425.573</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.996254</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.004362</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.205519269000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.48993336506426</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3/1/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TROY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2300</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.004362</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-10.0119</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.004194</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.009646200000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.6365538</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9.6365538</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3/1/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MAGIC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5306</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.0809</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.13446</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5528999999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.50785163</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.684376177911784</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4/1/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TROY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.004385</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3421</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3417.579</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.001085</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.004362</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14.883556545</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.7834663625997629</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
